--- a/Code/Results/Cases/Case_2_95/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_95/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.06494235575816</v>
+        <v>25.92709912656175</v>
       </c>
       <c r="C2">
-        <v>17.02341166062314</v>
+        <v>10.46640614322942</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.489765285885776</v>
+        <v>9.690440854064001</v>
       </c>
       <c r="F2">
-        <v>65.28207018733691</v>
+        <v>60.52218174649737</v>
       </c>
       <c r="G2">
-        <v>2.115965341750949</v>
+        <v>3.776161429866094</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.11909846666142</v>
+        <v>12.35637135367692</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.392843886314076</v>
+        <v>10.48919001606729</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.60177482017684</v>
+        <v>25.76685550090782</v>
       </c>
       <c r="C3">
-        <v>15.73356031287506</v>
+        <v>10.00813087818062</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.091678183899481</v>
+        <v>9.62434485532677</v>
       </c>
       <c r="F3">
-        <v>61.87384480919405</v>
+        <v>59.63373711618225</v>
       </c>
       <c r="G3">
-        <v>2.132672805569138</v>
+        <v>3.781500622069504</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.75667313461025</v>
+        <v>12.26654864344047</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>3.602679467544212</v>
+        <v>10.57063004378406</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.69330521622054</v>
+        <v>25.67886903946118</v>
       </c>
       <c r="C4">
-        <v>14.90961627838843</v>
+        <v>9.720251365292899</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.843524600418631</v>
+        <v>9.584136781358206</v>
       </c>
       <c r="F4">
-        <v>59.75065676599603</v>
+        <v>59.08920117396635</v>
       </c>
       <c r="G4">
-        <v>2.143051864242492</v>
+        <v>3.784942035796313</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.53483361187607</v>
+        <v>12.21121217109789</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.733553198096415</v>
+        <v>10.62321181959187</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.32072663863445</v>
+        <v>25.64566272979932</v>
       </c>
       <c r="C5">
-        <v>14.56548890528403</v>
+        <v>9.60151180564343</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.741446727231681</v>
+        <v>9.567850365962054</v>
       </c>
       <c r="F5">
-        <v>58.87786568910045</v>
+        <v>58.86772648660101</v>
       </c>
       <c r="G5">
-        <v>2.147319216945343</v>
+        <v>3.786385653456095</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.44455117912243</v>
+        <v>12.18862039597485</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.787487995626108</v>
+        <v>10.64529074638652</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.25872452504812</v>
+        <v>25.64030968669421</v>
       </c>
       <c r="C6">
-        <v>14.50783294847337</v>
+        <v>9.581715585729622</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.724439222056176</v>
+        <v>9.565152102260225</v>
       </c>
       <c r="F6">
-        <v>58.73248915886733</v>
+        <v>58.83098197964362</v>
       </c>
       <c r="G6">
-        <v>2.148030293071127</v>
+        <v>3.786627859939654</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.42956573864739</v>
+        <v>12.18486666520723</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.796482722570221</v>
+        <v>10.64899637805162</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.68828977090998</v>
+        <v>25.67841044287499</v>
       </c>
       <c r="C7">
-        <v>14.90500952003081</v>
+        <v>9.718655485201101</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.842151804845989</v>
+        <v>9.583916731877064</v>
       </c>
       <c r="F7">
-        <v>59.73891637341102</v>
+        <v>59.08621231381922</v>
       </c>
       <c r="G7">
-        <v>2.143109252938358</v>
+        <v>3.78496133779874</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.53361561038316</v>
+        <v>12.21090765325582</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.734278027420106</v>
+        <v>10.62350694165561</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.56259003917429</v>
+        <v>25.86970909904969</v>
       </c>
       <c r="C8">
-        <v>16.58509796874442</v>
+        <v>10.30985807611112</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.353260088002413</v>
+        <v>9.667575794665911</v>
       </c>
       <c r="F8">
-        <v>64.11323713244884</v>
+        <v>60.21575451559102</v>
       </c>
       <c r="G8">
-        <v>2.121705829683615</v>
+        <v>3.777968643118118</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.99395226344306</v>
+        <v>12.32544180541717</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3.464831064979991</v>
+        <v>10.5167376462807</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.33914570875881</v>
+        <v>26.32570131257759</v>
       </c>
       <c r="C9">
-        <v>19.64318137566657</v>
+        <v>11.40976305340086</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.328273179303114</v>
+        <v>9.834406503664155</v>
       </c>
       <c r="F9">
-        <v>72.45801531792041</v>
+        <v>62.43043978886872</v>
       </c>
       <c r="G9">
-        <v>2.080298381290598</v>
+        <v>3.765541484009573</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.90572699953563</v>
+        <v>12.54836046627907</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.362100744001465</v>
+        <v>10.3276606639287</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.21670291369205</v>
+        <v>26.70740593627693</v>
       </c>
       <c r="C10">
-        <v>21.77431086223658</v>
+        <v>12.17264097497655</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.033826044806307</v>
+        <v>9.958388759157573</v>
       </c>
       <c r="F10">
-        <v>78.48120735400838</v>
+        <v>64.04666737106805</v>
       </c>
       <c r="G10">
-        <v>2.049564978358998</v>
+        <v>3.757182499191449</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.58823197719197</v>
+        <v>12.71082146175317</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.672446334442924</v>
+        <v>10.20090740374856</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.51016904991012</v>
+        <v>26.89054670668018</v>
       </c>
       <c r="C11">
-        <v>22.72683546836621</v>
+        <v>12.50838613377193</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.354629198233786</v>
+        <v>10.01503396867966</v>
       </c>
       <c r="F11">
-        <v>81.21268355636889</v>
+        <v>64.77734933668825</v>
       </c>
       <c r="G11">
-        <v>2.035328873656534</v>
+        <v>3.753544574254557</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.90381709806235</v>
+        <v>12.78437817733774</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.81519759310794</v>
+        <v>10.14583927296055</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.99875490747797</v>
+        <v>26.96120428076048</v>
       </c>
       <c r="C12">
-        <v>23.08595768410284</v>
+        <v>12.63380015777859</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.476344905221879</v>
+        <v>10.03651342788057</v>
       </c>
       <c r="F12">
-        <v>82.24762923947038</v>
+        <v>65.0532053928667</v>
       </c>
       <c r="G12">
-        <v>2.029881421681541</v>
+        <v>3.752190449600876</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.02432673658822</v>
+        <v>12.81217631332395</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.869675613791058</v>
+        <v>10.12535562765029</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.89356437761458</v>
+        <v>26.94592980541427</v>
       </c>
       <c r="C13">
-        <v>23.00866873946647</v>
+        <v>12.60686819388495</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.450115902965308</v>
+        <v>10.03188624424073</v>
       </c>
       <c r="F13">
-        <v>82.02467351530296</v>
+        <v>64.9938349544618</v>
       </c>
       <c r="G13">
-        <v>2.031057507375588</v>
+        <v>3.752481043442464</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.99832304146775</v>
+        <v>12.80619208648328</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.857920490863611</v>
+        <v>10.12975076861892</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.55038298450919</v>
+        <v>26.89633392572275</v>
       </c>
       <c r="C14">
-        <v>22.75640669963387</v>
+        <v>12.51873912695766</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.364636378515753</v>
+        <v>10.01680054795918</v>
       </c>
       <c r="F14">
-        <v>81.29780476137935</v>
+        <v>64.80006199187116</v>
       </c>
       <c r="G14">
-        <v>2.034881971440011</v>
+        <v>3.753432700168936</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.91370955282543</v>
+        <v>12.78666630882141</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.819669819792001</v>
+        <v>10.144146685785</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.34005018238936</v>
+        <v>26.86612328002477</v>
       </c>
       <c r="C15">
-        <v>22.60171209107486</v>
+        <v>12.46453008410679</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.312317159866614</v>
+        <v>10.00756373598604</v>
       </c>
       <c r="F15">
-        <v>80.85271788228754</v>
+        <v>64.681256066073</v>
       </c>
       <c r="G15">
-        <v>2.037216537403209</v>
+        <v>3.754018669243731</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.86202143941636</v>
+        <v>12.774698702125</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.796301551126811</v>
+        <v>10.1530126159822</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.13193959482546</v>
+        <v>26.69562337544181</v>
       </c>
       <c r="C16">
-        <v>21.71178943634103</v>
+        <v>12.15046296887772</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.012877963410725</v>
+        <v>9.954691275494678</v>
       </c>
       <c r="F16">
-        <v>78.30267056836645</v>
+        <v>63.9988082675625</v>
       </c>
       <c r="G16">
-        <v>2.050488605445231</v>
+        <v>3.757423542172871</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.56773196372819</v>
+        <v>12.70600683381162</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.663164592967382</v>
+        <v>10.20455811861002</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.38746001621101</v>
+        <v>26.59341892066999</v>
       </c>
       <c r="C17">
-        <v>21.16206673423504</v>
+        <v>11.95482344940291</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.829302094453585</v>
+        <v>9.922314214760068</v>
       </c>
       <c r="F17">
-        <v>76.73724337887491</v>
+        <v>63.5788515919747</v>
       </c>
       <c r="G17">
-        <v>2.058552389120934</v>
+        <v>3.759554346835722</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.38867326064426</v>
+        <v>12.66377317774604</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.582018492488606</v>
+        <v>10.23684125251391</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.95771650569496</v>
+        <v>26.53553175050553</v>
       </c>
       <c r="C18">
-        <v>20.84422581325176</v>
+        <v>11.84123893168607</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.723680116487412</v>
+        <v>9.903715227200143</v>
       </c>
       <c r="F18">
-        <v>75.83591181725181</v>
+        <v>63.33688617856724</v>
       </c>
       <c r="G18">
-        <v>2.063167839607617</v>
+        <v>3.760795435656674</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.28614447875319</v>
+        <v>12.63944915565702</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.53547969675969</v>
+        <v>10.25565388198597</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.81192185180021</v>
+        <v>26.51608818685972</v>
       </c>
       <c r="C19">
-        <v>20.73630289514435</v>
+        <v>11.80260283872738</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.687905827283181</v>
+        <v>9.897422138778444</v>
       </c>
       <c r="F19">
-        <v>75.53052862746168</v>
+        <v>63.25489482805586</v>
       </c>
       <c r="G19">
-        <v>2.064727202271501</v>
+        <v>3.761218316117383</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.25150212742039</v>
+        <v>12.63120809307517</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.519740242350648</v>
+        <v>10.26206556274428</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.46686387461903</v>
+        <v>26.60420623273745</v>
       </c>
       <c r="C20">
-        <v>21.22075131090532</v>
+        <v>11.97575987897937</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.848845948203941</v>
+        <v>9.92575842568937</v>
       </c>
       <c r="F20">
-        <v>76.90397158564842</v>
+        <v>63.62360124651464</v>
       </c>
       <c r="G20">
-        <v>2.057696457181874</v>
+        <v>3.759325915595312</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.40768492775836</v>
+        <v>12.66827241432042</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.590641453614649</v>
+        <v>10.2333794057076</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.65120736706749</v>
+        <v>26.91086648331778</v>
       </c>
       <c r="C21">
-        <v>22.83053721514089</v>
+        <v>12.54467232927359</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.38973499463143</v>
+        <v>10.02123084085888</v>
       </c>
       <c r="F21">
-        <v>81.51127022279199</v>
+        <v>64.85700196609004</v>
       </c>
       <c r="G21">
-        <v>2.033760348745113</v>
+        <v>3.753152539862473</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.93853279875503</v>
+        <v>12.79240307808248</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.830891768427705</v>
+        <v>10.13990825558435</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.07236693599035</v>
+        <v>27.11887003103891</v>
       </c>
       <c r="C22">
-        <v>23.87397538234385</v>
+        <v>12.90639614884257</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.744782481439641</v>
+        <v>10.08379455593495</v>
       </c>
       <c r="F22">
-        <v>84.5271628091599</v>
+        <v>65.65813912064232</v>
       </c>
       <c r="G22">
-        <v>2.017774392683394</v>
+        <v>3.749254642847602</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.29151142288263</v>
+        <v>12.87319915763812</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.990488668162636</v>
+        <v>10.08097139823481</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.31404465882636</v>
+        <v>27.00718134145128</v>
       </c>
       <c r="C23">
-        <v>23.31752764605989</v>
+        <v>12.71429051058993</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.555039709118851</v>
+        <v>10.05038989465117</v>
       </c>
       <c r="F23">
-        <v>82.91633003621901</v>
+        <v>65.23107017080054</v>
       </c>
       <c r="G23">
-        <v>2.026345516568701</v>
+        <v>3.751322574263907</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.10245746017012</v>
+        <v>12.83010908052838</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.904996419039781</v>
+        <v>10.11223131233251</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.43097085874291</v>
+        <v>26.59932656979595</v>
       </c>
       <c r="C24">
-        <v>21.19422567631469</v>
+        <v>11.96629796480785</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.840010444973396</v>
+        <v>9.924201250696722</v>
       </c>
       <c r="F24">
-        <v>76.82859808721551</v>
+        <v>63.60337155436277</v>
       </c>
       <c r="G24">
-        <v>2.058083486509751</v>
+        <v>3.75942913931861</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.39908848143775</v>
+        <v>12.66623844396026</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.586742674496506</v>
+        <v>10.23494371952279</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.26028296787397</v>
+        <v>26.19393834676043</v>
       </c>
       <c r="C25">
-        <v>18.83856299108471</v>
+        <v>11.11958324638411</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.066968318226987</v>
+        <v>9.789005207669033</v>
       </c>
       <c r="F25">
-        <v>70.22312349398796</v>
+        <v>61.83245774638697</v>
       </c>
       <c r="G25">
-        <v>2.091500537808852</v>
+        <v>3.768767021886843</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.65748962227642</v>
+        <v>12.48826458664859</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.24811715881023</v>
+        <v>10.37665996114102</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_95/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_95/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.92709912656175</v>
+        <v>24.06494235575814</v>
       </c>
       <c r="C2">
-        <v>10.46640614322942</v>
+        <v>17.02341166062312</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.690440854064001</v>
+        <v>7.489765285885778</v>
       </c>
       <c r="F2">
-        <v>60.52218174649737</v>
+        <v>65.28207018733744</v>
       </c>
       <c r="G2">
-        <v>3.776161429866094</v>
+        <v>2.115965341750941</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.35637135367692</v>
+        <v>11.11909846666149</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.48919001606729</v>
+        <v>3.392843886314047</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.76685550090782</v>
+        <v>22.60177482017685</v>
       </c>
       <c r="C3">
-        <v>10.00813087818062</v>
+        <v>15.73356031287497</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.62434485532677</v>
+        <v>7.091678183899541</v>
       </c>
       <c r="F3">
-        <v>59.63373711618225</v>
+        <v>61.87384480919405</v>
       </c>
       <c r="G3">
-        <v>3.781500622069504</v>
+        <v>2.132672805569007</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.26654864344047</v>
+        <v>10.75667313461025</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.57063004378406</v>
+        <v>3.602679467544302</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.67886903946118</v>
+        <v>21.69330521622049</v>
       </c>
       <c r="C4">
-        <v>9.720251365292899</v>
+        <v>14.90961627838857</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.584136781358206</v>
+        <v>6.843524600418714</v>
       </c>
       <c r="F4">
-        <v>59.08920117396635</v>
+        <v>59.75065676599613</v>
       </c>
       <c r="G4">
-        <v>3.784942035796313</v>
+        <v>2.143051864242627</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.21121217109789</v>
+        <v>10.53483361187604</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.62321181959187</v>
+        <v>3.733553198096406</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.64566272979932</v>
+        <v>21.32072663863454</v>
       </c>
       <c r="C5">
-        <v>9.60151180564343</v>
+        <v>14.565488905284</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.567850365962054</v>
+        <v>6.741446727231787</v>
       </c>
       <c r="F5">
-        <v>58.86772648660101</v>
+        <v>58.87786568910013</v>
       </c>
       <c r="G5">
-        <v>3.786385653456095</v>
+        <v>2.147319216945744</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.18862039597485</v>
+        <v>10.44455117912239</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.64529074638652</v>
+        <v>3.787487995626314</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.64030968669421</v>
+        <v>21.25872452504813</v>
       </c>
       <c r="C6">
-        <v>9.581715585729622</v>
+        <v>14.50783294847341</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.565152102260225</v>
+        <v>6.724439222056251</v>
       </c>
       <c r="F6">
-        <v>58.83098197964362</v>
+        <v>58.73248915886739</v>
       </c>
       <c r="G6">
-        <v>3.786627859939654</v>
+        <v>2.148030293071112</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.18486666520723</v>
+        <v>10.42956573864738</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.64899637805162</v>
+        <v>3.796482722570253</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.67841044287499</v>
+        <v>21.68828977090996</v>
       </c>
       <c r="C7">
-        <v>9.718655485201101</v>
+        <v>14.90500952003087</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.583916731877064</v>
+        <v>6.842151804845852</v>
       </c>
       <c r="F7">
-        <v>59.08621231381922</v>
+        <v>59.73891637341098</v>
       </c>
       <c r="G7">
-        <v>3.78496133779874</v>
+        <v>2.143109252938219</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.21090765325582</v>
+        <v>10.53361561038314</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.62350694165561</v>
+        <v>3.734278027420013</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.86970909904969</v>
+        <v>23.5625900391742</v>
       </c>
       <c r="C8">
-        <v>10.30985807611112</v>
+        <v>16.58509796874479</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.667575794665911</v>
+        <v>7.353260088002759</v>
       </c>
       <c r="F8">
-        <v>60.21575451559102</v>
+        <v>64.11323713244893</v>
       </c>
       <c r="G8">
-        <v>3.777968643118118</v>
+        <v>2.121705829683876</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.32544180541717</v>
+        <v>10.99395226344307</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.5167376462807</v>
+        <v>3.464831064980068</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.32570131257759</v>
+        <v>27.33914570875884</v>
       </c>
       <c r="C9">
-        <v>11.40976305340086</v>
+        <v>19.64318137566666</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.834406503664155</v>
+        <v>8.328273179303313</v>
       </c>
       <c r="F9">
-        <v>62.43043978886872</v>
+        <v>72.4580153179208</v>
       </c>
       <c r="G9">
-        <v>3.765541484009573</v>
+        <v>2.080298381291112</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.54836046627907</v>
+        <v>11.90572699953568</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.3276606639287</v>
+        <v>3.362100744001472</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.70740593627693</v>
+        <v>30.21670291369204</v>
       </c>
       <c r="C10">
-        <v>12.17264097497655</v>
+        <v>21.77431086223622</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.958388759157573</v>
+        <v>9.033826044806084</v>
       </c>
       <c r="F10">
-        <v>64.04666737106805</v>
+        <v>78.48120735400775</v>
       </c>
       <c r="G10">
-        <v>3.757182499191449</v>
+        <v>2.049564978358871</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.71082146175317</v>
+        <v>12.58823197719188</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.20090740374856</v>
+        <v>3.672446334442979</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.89054670668018</v>
+        <v>31.51016904991022</v>
       </c>
       <c r="C11">
-        <v>12.50838613377193</v>
+        <v>22.72683546836639</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.01503396867966</v>
+        <v>9.354629198233905</v>
       </c>
       <c r="F11">
-        <v>64.77734933668825</v>
+        <v>81.21268355636913</v>
       </c>
       <c r="G11">
-        <v>3.753544574254557</v>
+        <v>2.035328873656534</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.78437817733774</v>
+        <v>12.90381709806237</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.14583927296055</v>
+        <v>3.81519759310794</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.96120428076048</v>
+        <v>31.99875490747791</v>
       </c>
       <c r="C12">
-        <v>12.63380015777859</v>
+        <v>23.08595768410285</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.03651342788057</v>
+        <v>9.476344905221948</v>
       </c>
       <c r="F12">
-        <v>65.0532053928667</v>
+        <v>82.24762923947047</v>
       </c>
       <c r="G12">
-        <v>3.752190449600876</v>
+        <v>2.029881421681657</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.81217631332395</v>
+        <v>13.0243267365882</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.12535562765029</v>
+        <v>3.869675613790995</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.94592980541427</v>
+        <v>31.8935643776144</v>
       </c>
       <c r="C13">
-        <v>12.60686819388495</v>
+        <v>23.00866873946629</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.03188624424073</v>
+        <v>9.450115902965216</v>
       </c>
       <c r="F13">
-        <v>64.9938349544618</v>
+        <v>82.02467351530221</v>
       </c>
       <c r="G13">
-        <v>3.752481043442464</v>
+        <v>2.031057507375345</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.80619208648328</v>
+        <v>12.99832304146764</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.12975076861892</v>
+        <v>3.857920490863494</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.89633392572275</v>
+        <v>31.55038298450919</v>
       </c>
       <c r="C14">
-        <v>12.51873912695766</v>
+        <v>22.75640669963374</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.01680054795918</v>
+        <v>9.364636378515852</v>
       </c>
       <c r="F14">
-        <v>64.80006199187116</v>
+        <v>81.29780476137944</v>
       </c>
       <c r="G14">
-        <v>3.753432700168936</v>
+        <v>2.034881971439975</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.78666630882141</v>
+        <v>12.91370955282545</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.144146685785</v>
+        <v>3.81966981979187</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.86612328002477</v>
+        <v>31.3400501823894</v>
       </c>
       <c r="C15">
-        <v>12.46453008410679</v>
+        <v>22.60171209107481</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.00756373598604</v>
+        <v>9.312317159866714</v>
       </c>
       <c r="F15">
-        <v>64.681256066073</v>
+        <v>80.85271788228773</v>
       </c>
       <c r="G15">
-        <v>3.754018669243731</v>
+        <v>2.037216537402827</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.774698702125</v>
+        <v>12.8620214394164</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.1530126159822</v>
+        <v>3.796301551126614</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.69562337544181</v>
+        <v>30.13193959482562</v>
       </c>
       <c r="C16">
-        <v>12.15046296887772</v>
+        <v>21.7117894363408</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.954691275494678</v>
+        <v>9.012877963410771</v>
       </c>
       <c r="F16">
-        <v>63.9988082675625</v>
+        <v>78.30267056836708</v>
       </c>
       <c r="G16">
-        <v>3.757423542172871</v>
+        <v>2.050488605444705</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.70600683381162</v>
+        <v>12.56773196372828</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.20455811861002</v>
+        <v>3.66316459296743</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.59341892066999</v>
+        <v>29.38746001621108</v>
       </c>
       <c r="C17">
-        <v>11.95482344940291</v>
+        <v>21.16206673423505</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.922314214760068</v>
+        <v>8.829302094453768</v>
       </c>
       <c r="F17">
-        <v>63.5788515919747</v>
+        <v>76.73724337887518</v>
       </c>
       <c r="G17">
-        <v>3.759554346835722</v>
+        <v>2.058552389121068</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.66377317774604</v>
+        <v>12.38867326064428</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.23684125251391</v>
+        <v>3.582018492488513</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.53553175050553</v>
+        <v>28.95771650569498</v>
       </c>
       <c r="C18">
-        <v>11.84123893168607</v>
+        <v>20.8442258132518</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.903715227200143</v>
+        <v>8.723680116487573</v>
       </c>
       <c r="F18">
-        <v>63.33688617856724</v>
+        <v>75.83591181725181</v>
       </c>
       <c r="G18">
-        <v>3.760795435656674</v>
+        <v>2.063167839607838</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.63944915565702</v>
+        <v>12.28614447875313</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.25565388198597</v>
+        <v>3.535479696759589</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.51608818685972</v>
+        <v>28.81192185180035</v>
       </c>
       <c r="C19">
-        <v>11.80260283872738</v>
+        <v>20.73630289514429</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.897422138778444</v>
+        <v>8.687905827283313</v>
       </c>
       <c r="F19">
-        <v>63.25489482805586</v>
+        <v>75.53052862746189</v>
       </c>
       <c r="G19">
-        <v>3.761218316117383</v>
+        <v>2.064727202271122</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.63120809307517</v>
+        <v>12.25150212742043</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.26206556274428</v>
+        <v>3.519740242350487</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.60420623273745</v>
+        <v>29.46686387461902</v>
       </c>
       <c r="C20">
-        <v>11.97575987897937</v>
+        <v>21.22075131090528</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.92575842568937</v>
+        <v>8.848845948203916</v>
       </c>
       <c r="F20">
-        <v>63.62360124651464</v>
+        <v>76.90397158564821</v>
       </c>
       <c r="G20">
-        <v>3.759325915595312</v>
+        <v>2.057696457181741</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.66827241432042</v>
+        <v>12.40768492775837</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.2333794057076</v>
+        <v>3.590641453614712</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.91086648331778</v>
+        <v>31.65120736706749</v>
       </c>
       <c r="C21">
-        <v>12.54467232927359</v>
+        <v>22.83053721514107</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.02123084085888</v>
+        <v>9.389734994631462</v>
       </c>
       <c r="F21">
-        <v>64.85700196609004</v>
+        <v>81.51127022279218</v>
       </c>
       <c r="G21">
-        <v>3.753152539862473</v>
+        <v>2.033760348745235</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.79240307808248</v>
+        <v>12.93853279875509</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.13990825558435</v>
+        <v>3.830891768427774</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.11887003103891</v>
+        <v>33.07236693599038</v>
       </c>
       <c r="C22">
-        <v>12.90639614884257</v>
+        <v>23.87397538234402</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.08379455593495</v>
+        <v>9.744782481439779</v>
       </c>
       <c r="F22">
-        <v>65.65813912064232</v>
+        <v>84.52716280916015</v>
       </c>
       <c r="G22">
-        <v>3.749254642847602</v>
+        <v>2.017774392683256</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.87319915763812</v>
+        <v>13.2915114228827</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.08097139823481</v>
+        <v>3.990488668162642</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.00718134145128</v>
+        <v>32.3140446588264</v>
       </c>
       <c r="C23">
-        <v>12.71429051058993</v>
+        <v>23.31752764606</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.05038989465117</v>
+        <v>9.555039709118871</v>
       </c>
       <c r="F23">
-        <v>65.23107017080054</v>
+        <v>82.91633003621905</v>
       </c>
       <c r="G23">
-        <v>3.751322574263907</v>
+        <v>2.026345516568558</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.83010908052838</v>
+        <v>13.1024574601701</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.11223131233251</v>
+        <v>3.904996419039781</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.59932656979595</v>
+        <v>29.430970858743</v>
       </c>
       <c r="C24">
-        <v>11.96629796480785</v>
+        <v>21.19422567631494</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.924201250696722</v>
+        <v>8.840010444973569</v>
       </c>
       <c r="F24">
-        <v>63.60337155436277</v>
+        <v>76.82859808721568</v>
       </c>
       <c r="G24">
-        <v>3.75942913931861</v>
+        <v>2.058083486509761</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.66623844396026</v>
+        <v>12.3990884814377</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.23494371952279</v>
+        <v>3.586742674496614</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.19393834676043</v>
+        <v>26.26028296787401</v>
       </c>
       <c r="C25">
-        <v>11.11958324638411</v>
+        <v>18.83856299108474</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.789005207669033</v>
+        <v>8.066968318227074</v>
       </c>
       <c r="F25">
-        <v>61.83245774638697</v>
+        <v>70.2231234939879</v>
       </c>
       <c r="G25">
-        <v>3.768767021886843</v>
+        <v>2.091500537808829</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.48826458664859</v>
+        <v>11.65748962227645</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.37665996114102</v>
+        <v>3.248117158810092</v>
       </c>
       <c r="M25">
         <v>0</v>
